--- a/documents/Z.xlsx
+++ b/documents/Z.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edielson\Documents\Researches\robust-network-optimization\ampl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edielson\Documents\Researches\robust-network-optimization\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
   <si>
     <t>p</t>
   </si>
@@ -47,6 +46,9 @@
   </si>
   <si>
     <t>norminv</t>
+  </si>
+  <si>
+    <t>Sum</t>
   </si>
 </sst>
 </file>
@@ -182,7 +184,35 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -815,8 +845,8 @@
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="377475" cy="183192"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -905,7 +935,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -971,8 +1001,8 @@
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="206595" cy="183192"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -1048,7 +1078,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -1900,17 +1930,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="5" priority="15" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="lessThanOrEqual">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E38">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThanOrEqual">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C38">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThanOrEqual">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1921,10 +1951,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G39"/>
+  <dimension ref="B1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1933,8 +1963,8 @@
     <col min="2" max="2" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1949,7 +1979,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
@@ -1964,7 +1994,7 @@
         <v>1.4775E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
@@ -1979,7 +2009,7 @@
         <v>2.3263478740408408</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="10" t="s">
         <v>3</v>
       </c>
@@ -1988,10 +2018,19 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C7" s="12"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="4">
         <v>0</v>
       </c>
@@ -2002,8 +2041,18 @@
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:H10" si="0">F8+G8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="4">
         <v>1</v>
       </c>
@@ -2012,105 +2061,141 @@
         <v>0.29777330181406425</v>
       </c>
       <c r="D9">
-        <f t="shared" ref="D9:D38" si="0">ROUNDUP(C9,0)</f>
+        <f t="shared" ref="D9:D38" si="1">ROUNDUP(C9,0)</f>
         <v>1</v>
       </c>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="F9" s="2">
+        <f>$G$2+F8</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G9">
+        <f>SQRT($G$3)*$G$4+G8</f>
+        <v>0.28277330181406424</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.29777330181406425</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
         <v>2</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" ref="C10:C38" si="1">SQRT($G$3)*$G$4+$G$2+C9</f>
+        <f t="shared" ref="C10:C38" si="2">SQRT($G$3)*$G$4+$G$2+C9</f>
         <v>0.5955466036281285</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="F10" s="2">
+        <f>$G$2+F9</f>
+        <v>0.03</v>
+      </c>
+      <c r="G10">
+        <f>SQRT($G$3)*$G$4+G9</f>
+        <v>0.56554660362812847</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.5955466036281285</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="4">
         <v>3</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.89331990544219275</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="F11" s="2">
+        <f>$G$2+F10</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G11">
+        <f>SQRT($G$3)*$G$4+G10</f>
+        <v>0.84831990544219271</v>
+      </c>
+      <c r="H11">
+        <f>F11+G11</f>
+        <v>0.89331990544219275</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="4">
         <v>4</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.191093207256257</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="4">
         <v>5</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4888665090703213</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="4">
         <v>6</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7866398108843855</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" s="4">
         <v>7</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0844131126984498</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="4">
         <v>8</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.382186414512514</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E16" s="2"/>
@@ -2120,11 +2205,11 @@
         <v>9</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6799597163265783</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E17" s="2"/>
@@ -2134,11 +2219,11 @@
         <v>10</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9777330181406425</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E18" s="2"/>
@@ -2148,11 +2233,11 @@
         <v>11</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.2755063199547068</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E19" s="2"/>
@@ -2162,11 +2247,11 @@
         <v>12</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.573279621768771</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E20" s="2"/>
@@ -2176,11 +2261,11 @@
         <v>13</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8710529235828353</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E21" s="2"/>
@@ -2190,11 +2275,11 @@
         <v>14</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.1688262253968995</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="E22" s="2"/>
@@ -2204,11 +2289,11 @@
         <v>15</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.4665995272109633</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="E23" s="2"/>
@@ -2218,11 +2303,11 @@
         <v>16</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.764372829025028</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="E24" s="2"/>
@@ -2232,11 +2317,11 @@
         <v>17</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.0621461308390927</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E25" s="2"/>
@@ -2246,11 +2331,11 @@
         <v>18</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.3599194326531574</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E26" s="2"/>
@@ -2260,11 +2345,11 @@
         <v>19</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6576927344672221</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E27" s="2"/>
@@ -2274,11 +2359,11 @@
         <v>20</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.9554660362812868</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E28" s="2"/>
@@ -2288,11 +2373,11 @@
         <v>21</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.2532393380953515</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="E29" s="2"/>
@@ -2302,11 +2387,11 @@
         <v>22</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.5510126399094162</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="E30" s="2"/>
@@ -2316,11 +2401,11 @@
         <v>23</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.8487859417234809</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="E31" s="2"/>
@@ -2330,11 +2415,11 @@
         <v>24</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.1465592435375456</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="E32" s="2"/>
@@ -2344,11 +2429,11 @@
         <v>25</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.4443325453516103</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="E33" s="2"/>
@@ -2358,11 +2443,11 @@
         <v>26</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.742105847165675</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="E34" s="2"/>
@@ -2372,11 +2457,11 @@
         <v>27</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.0398791489797397</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E35" s="2"/>
@@ -2386,11 +2471,11 @@
         <v>28</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.3376524507938043</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E36" s="2"/>
@@ -2400,11 +2485,11 @@
         <v>29</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.635425752607869</v>
       </c>
       <c r="D37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E37" s="2"/>
@@ -2414,11 +2499,11 @@
         <v>30</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.9331990544219337</v>
       </c>
       <c r="D38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E38" s="2"/>
@@ -2428,17 +2513,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThanOrEqual">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E38">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThanOrEqual">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C38">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThanOrEqual">
+      <formula>$D$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F11">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThanOrEqual">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/documents/Z.xlsx
+++ b/documents/Z.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>p</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Sum</t>
+  </si>
+  <si>
+    <t>SumVariance</t>
   </si>
 </sst>
 </file>
@@ -184,14 +187,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -1930,17 +1926,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="15" operator="lessThanOrEqual">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E38">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThanOrEqual">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C38">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThanOrEqual">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1951,35 +1947,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H39"/>
+  <dimension ref="B1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.81640625" customWidth="1"/>
     <col min="2" max="2" width="8.7265625" style="3"/>
+    <col min="8" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6">
-        <v>1.4999999999999999E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2">
         <f>D2</f>
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
@@ -1991,10 +1988,10 @@
       </c>
       <c r="G3">
         <f>D2*(1-D2)</f>
-        <v>1.4775E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+        <v>2.4375000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
@@ -2009,7 +2006,7 @@
         <v>2.3263478740408408</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="10" t="s">
         <v>3</v>
       </c>
@@ -2018,7 +2015,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C7" s="12"/>
       <c r="F7" t="s">
         <v>4</v>
@@ -2027,10 +2024,13 @@
         <v>5</v>
       </c>
       <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="4">
         <v>0</v>
       </c>
@@ -2047,380 +2047,660 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8">
-        <f t="shared" ref="H8:H10" si="0">F8+G8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="4">
         <v>1</v>
       </c>
       <c r="C9" s="2">
         <f>SQRT($G$3)*$G$4+$G$2+C8</f>
-        <v>0.29777330181406425</v>
+        <v>0.38820094542408551</v>
       </c>
       <c r="D9">
-        <f t="shared" ref="D9:D38" si="1">ROUNDUP(C9,0)</f>
+        <f t="shared" ref="D9:D38" si="0">ROUNDUP(C9,0)</f>
         <v>1</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2">
         <f>$G$2+F8</f>
-        <v>1.4999999999999999E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G9">
-        <f>SQRT($G$3)*$G$4+G8</f>
-        <v>0.28277330181406424</v>
+        <f>$G$3+G8</f>
+        <v>2.4375000000000001E-2</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
-        <v>0.29777330181406425</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+        <f>SQRT(G9)*$G$4</f>
+        <v>0.36320094542408549</v>
+      </c>
+      <c r="I9">
+        <f>F9+H9</f>
+        <v>0.38820094542408551</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
         <v>2</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" ref="C10:C38" si="2">SQRT($G$3)*$G$4+$G$2+C9</f>
-        <v>0.5955466036281285</v>
+        <f t="shared" ref="C10:C38" si="1">SQRT($G$3)*$G$4+$G$2+C9</f>
+        <v>0.77640189084817102</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2">
         <f>$G$2+F9</f>
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="G10">
-        <f>SQRT($G$3)*$G$4+G9</f>
-        <v>0.56554660362812847</v>
+        <f>$G$3+G9</f>
+        <v>4.8750000000000002E-2</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
-        <v>0.5955466036281285</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+        <f>SQRT(G10)*$G$4</f>
+        <v>0.51364370288547201</v>
+      </c>
+      <c r="I10">
+        <f>F10+H10</f>
+        <v>0.56364370288547205</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="4">
         <v>3</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="2"/>
-        <v>0.89331990544219275</v>
+        <f t="shared" si="1"/>
+        <v>1.1646028362722565</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2">
         <f>$G$2+F10</f>
-        <v>4.4999999999999998E-2</v>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="G11">
-        <f>SQRT($G$3)*$G$4+G10</f>
-        <v>0.84831990544219271</v>
+        <f>$G$3+G10</f>
+        <v>7.3124999999999996E-2</v>
       </c>
       <c r="H11">
-        <f>F11+G11</f>
-        <v>0.89331990544219275</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+        <f>SQRT(G11)*$G$4</f>
+        <v>0.62908249083156687</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ref="I11:I28" si="2">F11+H11</f>
+        <v>0.70408249083156682</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="4">
         <v>4</v>
       </c>
       <c r="C12" s="2">
+        <f t="shared" si="1"/>
+        <v>1.552803781696342</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
+        <f t="shared" ref="F12:F28" si="3">$G$2+F11</f>
+        <v>0.1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ref="G12:G28" si="4">$G$3+G11</f>
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ref="H12:H28" si="5">SQRT(G12)*$G$4</f>
+        <v>0.72640189084817097</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="2"/>
-        <v>1.191093207256257</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+        <v>0.82640189084817095</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="4">
         <v>5</v>
       </c>
       <c r="C13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.9410047271204276</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>0.12187500000000001</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="5"/>
+        <v>0.8121420034604464</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="2"/>
-        <v>1.4888665090703213</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+        <v>0.9371420034604464</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="4">
         <v>6</v>
       </c>
       <c r="C14" s="2">
+        <f t="shared" si="1"/>
+        <v>2.3292056725445129</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>0.14625000000000002</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="5"/>
+        <v>0.88965699038545043</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="2"/>
-        <v>1.7866398108843855</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+        <v>1.0396569903854505</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" s="4">
         <v>7</v>
       </c>
       <c r="C15" s="2">
+        <f t="shared" si="1"/>
+        <v>2.7174066179685985</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2">
+        <f t="shared" si="3"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>0.17062500000000003</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="5"/>
+        <v>0.96093937753567304</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="2"/>
-        <v>2.0844131126984498</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+        <v>1.135939377535673</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" s="4">
         <v>8</v>
       </c>
       <c r="C16" s="2">
+        <f t="shared" si="1"/>
+        <v>3.1056075633926841</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
+        <f t="shared" si="3"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>0.19500000000000003</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="5"/>
+        <v>1.0272874057709442</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="2"/>
-        <v>2.382186414512514</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1.2272874057709442</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" s="4">
         <v>9</v>
       </c>
       <c r="C17" s="2">
+        <f t="shared" si="1"/>
+        <v>3.4938085088167696</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2">
+        <f t="shared" si="3"/>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>0.21937500000000004</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="5"/>
+        <v>1.0896028362722565</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="2"/>
-        <v>2.6799597163265783</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1.3146028362722566</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" s="4">
         <v>10</v>
       </c>
       <c r="C18" s="2">
+        <f t="shared" si="1"/>
+        <v>3.8820094542408552</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2">
+        <f t="shared" si="3"/>
+        <v>0.24999999999999997</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>0.24375000000000005</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="5"/>
+        <v>1.1485422358666204</v>
+      </c>
+      <c r="I18">
         <f t="shared" si="2"/>
-        <v>2.9777330181406425</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1.3985422358666204</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" s="4">
         <v>11</v>
       </c>
       <c r="C19" s="2">
+        <f t="shared" si="1"/>
+        <v>4.2702103996649408</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2">
+        <f t="shared" si="3"/>
+        <v>0.27499999999999997</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>0.26812500000000006</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="5"/>
+        <v>1.2046012594740407</v>
+      </c>
+      <c r="I19">
         <f t="shared" si="2"/>
-        <v>3.2755063199547068</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1.4796012594740406</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" s="4">
         <v>12</v>
       </c>
       <c r="C20" s="2">
+        <f t="shared" si="1"/>
+        <v>4.6584113450890259</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>0.29250000000000004</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="5"/>
+        <v>1.2581649816631342</v>
+      </c>
+      <c r="I20">
         <f t="shared" si="2"/>
-        <v>3.573279621768771</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1.5581649816631342</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" s="4">
         <v>13</v>
       </c>
       <c r="C21" s="2">
+        <f t="shared" si="1"/>
+        <v>5.046612290513111</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2">
+        <f>$G$2+F20</f>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>0.31687500000000002</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="5"/>
+        <v>1.3095396320235384</v>
+      </c>
+      <c r="I21">
         <f t="shared" si="2"/>
-        <v>3.8710529235828353</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1.6345396320235384</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22" s="4">
         <v>14</v>
       </c>
       <c r="C22" s="2">
+        <f t="shared" si="1"/>
+        <v>5.4348132359371961</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2">
+        <f t="shared" si="3"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="4"/>
+        <v>0.34125</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="5"/>
+        <v>1.3589735003293086</v>
+      </c>
+      <c r="I22">
         <f t="shared" si="2"/>
-        <v>4.1688262253968995</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1.7089735003293087</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="4">
         <v>15</v>
       </c>
       <c r="C23" s="2">
+        <f t="shared" si="1"/>
+        <v>5.8230141813612812</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2">
+        <f t="shared" si="3"/>
+        <v>0.37500000000000006</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="4"/>
+        <v>0.36562499999999998</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="5"/>
+        <v>1.406671212954272</v>
+      </c>
+      <c r="I23">
         <f t="shared" si="2"/>
-        <v>4.4665995272109633</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1.781671212954272</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" s="4">
         <v>16</v>
       </c>
       <c r="C24" s="2">
+        <f t="shared" si="1"/>
+        <v>6.2112151267853664</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2">
+        <f t="shared" si="3"/>
+        <v>0.40000000000000008</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="4"/>
+        <v>0.38999999999999996</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="5"/>
+        <v>1.4528037816963419</v>
+      </c>
+      <c r="I24">
         <f t="shared" si="2"/>
-        <v>4.764372829025028</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1.8528037816963421</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B25" s="4">
         <v>17</v>
       </c>
       <c r="C25" s="2">
+        <f t="shared" si="1"/>
+        <v>6.5994160722094515</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.4250000000000001</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>0.41437499999999994</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="5"/>
+        <v>1.4975158613076998</v>
+      </c>
+      <c r="I25">
         <f t="shared" si="2"/>
-        <v>5.0621461308390927</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1.9225158613076998</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B26" s="4">
         <v>18</v>
       </c>
       <c r="C26" s="2">
+        <f t="shared" si="1"/>
+        <v>6.9876170176335366</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2">
+        <f t="shared" si="3"/>
+        <v>0.45000000000000012</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="4"/>
+        <v>0.43874999999999992</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="5"/>
+        <v>1.5409311086564157</v>
+      </c>
+      <c r="I26">
         <f t="shared" si="2"/>
-        <v>5.3599194326531574</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+        <v>1.9909311086564159</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B27" s="4">
         <v>19</v>
       </c>
       <c r="C27" s="2">
+        <f t="shared" si="1"/>
+        <v>7.3758179630576217</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2">
+        <f t="shared" si="3"/>
+        <v>0.47500000000000014</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="4"/>
+        <v>0.4631249999999999</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="5"/>
+        <v>1.5831562173020197</v>
+      </c>
+      <c r="I27">
         <f t="shared" si="2"/>
-        <v>5.6576927344672221</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2.0581562173020198</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B28" s="4">
         <v>20</v>
       </c>
       <c r="C28" s="2">
+        <f t="shared" si="1"/>
+        <v>7.7640189084817068</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2">
+        <f t="shared" si="3"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="4"/>
+        <v>0.48749999999999988</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="5"/>
+        <v>1.6242840069208924</v>
+      </c>
+      <c r="I28">
         <f t="shared" si="2"/>
-        <v>5.9554660362812868</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+        <v>2.1242840069208926</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B29" s="4">
         <v>21</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" si="2"/>
-        <v>6.2532393380953515</v>
+        <f t="shared" si="1"/>
+        <v>8.1522198539057928</v>
       </c>
       <c r="D29">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B30" s="4">
         <v>22</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" si="2"/>
-        <v>6.5510126399094162</v>
+        <f t="shared" si="1"/>
+        <v>8.540420799329878</v>
       </c>
       <c r="D30">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B31" s="4">
         <v>23</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" si="2"/>
-        <v>6.8487859417234809</v>
+        <f t="shared" si="1"/>
+        <v>8.9286217447539631</v>
       </c>
       <c r="D31">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B32" s="4">
         <v>24</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" si="2"/>
-        <v>7.1465592435375456</v>
+        <f t="shared" si="1"/>
+        <v>9.3168226901780482</v>
       </c>
       <c r="D32">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="E32" s="2"/>
     </row>
@@ -2429,12 +2709,12 @@
         <v>25</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" si="2"/>
-        <v>7.4443325453516103</v>
+        <f t="shared" si="1"/>
+        <v>9.7050236356021333</v>
       </c>
       <c r="D33">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="E33" s="2"/>
     </row>
@@ -2443,12 +2723,12 @@
         <v>26</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" si="2"/>
-        <v>7.742105847165675</v>
+        <f t="shared" si="1"/>
+        <v>10.093224581026218</v>
       </c>
       <c r="D34">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="E34" s="2"/>
     </row>
@@ -2457,12 +2737,12 @@
         <v>27</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" si="2"/>
-        <v>8.0398791489797397</v>
+        <f t="shared" si="1"/>
+        <v>10.481425526450304</v>
       </c>
       <c r="D35">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="E35" s="2"/>
     </row>
@@ -2471,12 +2751,12 @@
         <v>28</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" si="2"/>
-        <v>8.3376524507938043</v>
+        <f t="shared" si="1"/>
+        <v>10.869626471874389</v>
       </c>
       <c r="D36">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="E36" s="2"/>
     </row>
@@ -2485,12 +2765,12 @@
         <v>29</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" si="2"/>
-        <v>8.635425752607869</v>
+        <f t="shared" si="1"/>
+        <v>11.257827417298474</v>
       </c>
       <c r="D37">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="E37" s="2"/>
     </row>
@@ -2499,12 +2779,12 @@
         <v>30</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" si="2"/>
-        <v>8.9331990544219337</v>
+        <f t="shared" si="1"/>
+        <v>11.646028362722559</v>
       </c>
       <c r="D38">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="E38" s="2"/>
     </row>
@@ -2513,22 +2793,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThanOrEqual">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E38">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThanOrEqual">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C38">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThanOrEqual">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F11">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="F9:F28">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThanOrEqual">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/documents/Z.xlsx
+++ b/documents/Z.xlsx
@@ -187,21 +187,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -1926,17 +1912,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="8" priority="15" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="15" operator="lessThanOrEqual">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E38">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThanOrEqual">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C38">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThanOrEqual">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1949,8 +1935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2134,7 +2120,7 @@
         <v>0.62908249083156687</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="I11:I28" si="2">F11+H11</f>
+        <f>F11+H11</f>
         <v>0.70408249083156682</v>
       </c>
     </row>
@@ -2152,19 +2138,19 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2">
-        <f t="shared" ref="F12:F28" si="3">$G$2+F11</f>
+        <f t="shared" ref="F12:F28" si="2">$G$2+F11</f>
         <v>0.1</v>
       </c>
       <c r="G12">
-        <f t="shared" ref="G12:G28" si="4">$G$3+G11</f>
+        <f t="shared" ref="G12:G28" si="3">$G$3+G11</f>
         <v>9.7500000000000003E-2</v>
       </c>
       <c r="H12">
-        <f t="shared" ref="H12:H28" si="5">SQRT(G12)*$G$4</f>
+        <f>SQRT(G12)*$G$4</f>
         <v>0.72640189084817097</v>
       </c>
       <c r="I12">
-        <f t="shared" si="2"/>
+        <f>F12+H12</f>
         <v>0.82640189084817095</v>
       </c>
     </row>
@@ -2182,19 +2168,19 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="3"/>
-        <v>0.125</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="4"/>
         <v>0.12187500000000001</v>
       </c>
       <c r="H13">
-        <f t="shared" si="5"/>
+        <f>SQRT(G13)*$G$4</f>
         <v>0.8121420034604464</v>
       </c>
       <c r="I13">
-        <f t="shared" si="2"/>
+        <f>F13+H13</f>
         <v>0.9371420034604464</v>
       </c>
     </row>
@@ -2212,19 +2198,19 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="3"/>
-        <v>0.15</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="4"/>
         <v>0.14625000000000002</v>
       </c>
       <c r="H14">
-        <f t="shared" si="5"/>
+        <f>SQRT(G14)*$G$4</f>
         <v>0.88965699038545043</v>
       </c>
       <c r="I14">
-        <f t="shared" si="2"/>
+        <f>F14+H14</f>
         <v>1.0396569903854505</v>
       </c>
     </row>
@@ -2242,19 +2228,19 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2">
+        <f t="shared" si="2"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="3"/>
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="4"/>
         <v>0.17062500000000003</v>
       </c>
       <c r="H15">
-        <f t="shared" si="5"/>
+        <f>SQRT(G15)*$G$4</f>
         <v>0.96093937753567304</v>
       </c>
       <c r="I15">
-        <f t="shared" si="2"/>
+        <f>F15+H15</f>
         <v>1.135939377535673</v>
       </c>
     </row>
@@ -2272,19 +2258,19 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2">
+        <f t="shared" si="2"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="3"/>
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="4"/>
         <v>0.19500000000000003</v>
       </c>
       <c r="H16">
-        <f t="shared" si="5"/>
+        <f>SQRT(G16)*$G$4</f>
         <v>1.0272874057709442</v>
       </c>
       <c r="I16">
-        <f t="shared" si="2"/>
+        <f>F16+H16</f>
         <v>1.2272874057709442</v>
       </c>
     </row>
@@ -2302,19 +2288,19 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2">
+        <f t="shared" si="2"/>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="3"/>
-        <v>0.22499999999999998</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="4"/>
         <v>0.21937500000000004</v>
       </c>
       <c r="H17">
-        <f t="shared" si="5"/>
+        <f>SQRT(G17)*$G$4</f>
         <v>1.0896028362722565</v>
       </c>
       <c r="I17">
-        <f t="shared" si="2"/>
+        <f>F17+H17</f>
         <v>1.3146028362722566</v>
       </c>
     </row>
@@ -2332,19 +2318,19 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.24999999999999997</v>
       </c>
       <c r="G18">
-        <f t="shared" si="4"/>
+        <f>$G$3+G17</f>
         <v>0.24375000000000005</v>
       </c>
       <c r="H18">
-        <f t="shared" si="5"/>
+        <f>SQRT(G18)*$G$4</f>
         <v>1.1485422358666204</v>
       </c>
       <c r="I18">
-        <f t="shared" si="2"/>
+        <f>F18+H18</f>
         <v>1.3985422358666204</v>
       </c>
     </row>
@@ -2362,19 +2348,19 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.27499999999999997</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="3"/>
-        <v>0.27499999999999997</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="4"/>
         <v>0.26812500000000006</v>
       </c>
       <c r="H19">
-        <f t="shared" si="5"/>
+        <f>SQRT(G19)*$G$4</f>
         <v>1.2046012594740407</v>
       </c>
       <c r="I19">
-        <f t="shared" si="2"/>
+        <f>F19+H19</f>
         <v>1.4796012594740406</v>
       </c>
     </row>
@@ -2392,19 +2378,19 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="3"/>
-        <v>0.3</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="4"/>
         <v>0.29250000000000004</v>
       </c>
       <c r="H20">
-        <f t="shared" si="5"/>
+        <f>SQRT(G20)*$G$4</f>
         <v>1.2581649816631342</v>
       </c>
       <c r="I20">
-        <f t="shared" si="2"/>
+        <f>F20+H20</f>
         <v>1.5581649816631342</v>
       </c>
     </row>
@@ -2426,15 +2412,15 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="G21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.31687500000000002</v>
       </c>
       <c r="H21">
-        <f t="shared" si="5"/>
+        <f>SQRT(G21)*$G$4</f>
         <v>1.3095396320235384</v>
       </c>
       <c r="I21">
-        <f t="shared" si="2"/>
+        <f>F21+H21</f>
         <v>1.6345396320235384</v>
       </c>
     </row>
@@ -2452,19 +2438,19 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2">
+        <f t="shared" si="2"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="3"/>
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="4"/>
         <v>0.34125</v>
       </c>
       <c r="H22">
-        <f t="shared" si="5"/>
+        <f>SQRT(G22)*$G$4</f>
         <v>1.3589735003293086</v>
       </c>
       <c r="I22">
-        <f t="shared" si="2"/>
+        <f>F22+H22</f>
         <v>1.7089735003293087</v>
       </c>
     </row>
@@ -2482,19 +2468,19 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2">
+        <f t="shared" si="2"/>
+        <v>0.37500000000000006</v>
+      </c>
+      <c r="G23">
         <f t="shared" si="3"/>
-        <v>0.37500000000000006</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="4"/>
         <v>0.36562499999999998</v>
       </c>
       <c r="H23">
-        <f t="shared" si="5"/>
+        <f>SQRT(G23)*$G$4</f>
         <v>1.406671212954272</v>
       </c>
       <c r="I23">
-        <f t="shared" si="2"/>
+        <f>F23+H23</f>
         <v>1.781671212954272</v>
       </c>
     </row>
@@ -2512,19 +2498,19 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2">
+        <f t="shared" si="2"/>
+        <v>0.40000000000000008</v>
+      </c>
+      <c r="G24">
         <f t="shared" si="3"/>
-        <v>0.40000000000000008</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="4"/>
         <v>0.38999999999999996</v>
       </c>
       <c r="H24">
-        <f t="shared" si="5"/>
+        <f>SQRT(G24)*$G$4</f>
         <v>1.4528037816963419</v>
       </c>
       <c r="I24">
-        <f t="shared" si="2"/>
+        <f>F24+H24</f>
         <v>1.8528037816963421</v>
       </c>
     </row>
@@ -2542,19 +2528,19 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2">
+        <f t="shared" si="2"/>
+        <v>0.4250000000000001</v>
+      </c>
+      <c r="G25">
         <f t="shared" si="3"/>
-        <v>0.4250000000000001</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="4"/>
         <v>0.41437499999999994</v>
       </c>
       <c r="H25">
-        <f t="shared" si="5"/>
+        <f>SQRT(G25)*$G$4</f>
         <v>1.4975158613076998</v>
       </c>
       <c r="I25">
-        <f t="shared" si="2"/>
+        <f>F25+H25</f>
         <v>1.9225158613076998</v>
       </c>
     </row>
@@ -2572,19 +2558,19 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2">
+        <f t="shared" si="2"/>
+        <v>0.45000000000000012</v>
+      </c>
+      <c r="G26">
         <f t="shared" si="3"/>
-        <v>0.45000000000000012</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="4"/>
         <v>0.43874999999999992</v>
       </c>
       <c r="H26">
-        <f t="shared" si="5"/>
+        <f>SQRT(G26)*$G$4</f>
         <v>1.5409311086564157</v>
       </c>
       <c r="I26">
-        <f t="shared" si="2"/>
+        <f>F26+H26</f>
         <v>1.9909311086564159</v>
       </c>
     </row>
@@ -2602,19 +2588,19 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2">
+        <f t="shared" si="2"/>
+        <v>0.47500000000000014</v>
+      </c>
+      <c r="G27">
         <f t="shared" si="3"/>
-        <v>0.47500000000000014</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="4"/>
         <v>0.4631249999999999</v>
       </c>
       <c r="H27">
-        <f t="shared" si="5"/>
+        <f>SQRT(G27)*$G$4</f>
         <v>1.5831562173020197</v>
       </c>
       <c r="I27">
-        <f t="shared" si="2"/>
+        <f>F27+H27</f>
         <v>2.0581562173020198</v>
       </c>
     </row>
@@ -2632,19 +2618,19 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2">
+        <f t="shared" si="2"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="G28">
         <f t="shared" si="3"/>
-        <v>0.50000000000000011</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="4"/>
         <v>0.48749999999999988</v>
       </c>
       <c r="H28">
-        <f t="shared" si="5"/>
+        <f>SQRT(G28)*$G$4</f>
         <v>1.6242840069208924</v>
       </c>
       <c r="I28">
-        <f t="shared" si="2"/>
+        <f>F28+H28</f>
         <v>2.1242840069208926</v>
       </c>
     </row>
@@ -2793,22 +2779,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThanOrEqual">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E38">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThanOrEqual">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C38">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F28">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/documents/Z.xlsx
+++ b/documents/Z.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4420" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4420" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="p = 0.025" sheetId="4" r:id="rId1"/>
+    <sheet name="p=0.05" sheetId="5" r:id="rId2"/>
+    <sheet name="p=0.075" sheetId="6" r:id="rId3"/>
+    <sheet name="p=0.1" sheetId="7" r:id="rId4"/>
+    <sheet name="p=0.25" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="8">
   <si>
     <t>p</t>
   </si>
@@ -46,9 +49,6 @@
   </si>
   <si>
     <t>norminv</t>
-  </si>
-  <si>
-    <t>Sum</t>
   </si>
   <si>
     <t>SumVariance</t>
@@ -73,12 +73,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -155,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -180,14 +186,72 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -254,12 +318,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="377475" cy="183192"/>
+    <xdr:ext cx="206595" cy="183192"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -269,7 +333,279 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="996950" y="1111250"/>
+              <a:off x="215900" y="749300"/>
+              <a:ext cx="206595" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐶</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖𝑗</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="215900" y="749300"/>
+              <a:ext cx="206595" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐶_𝑖𝑗</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="206595" cy="183192"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="228600" y="533400"/>
+              <a:ext cx="206595" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖𝑗</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="228600" y="533400"/>
+              <a:ext cx="206595" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛_𝑖𝑗</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="377475" cy="183192"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2838450" y="1111250"/>
               <a:ext cx="377475" cy="183192"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -350,15 +686,15 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvPr id="4" name="TextBox 3"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="996950" y="1111250"/>
+              <a:off x="2838450" y="1111250"/>
               <a:ext cx="377475" cy="183192"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -420,12 +756,289 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="488950" y="1092200"/>
+              <a:ext cx="206595" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖𝑗</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="488950" y="1092200"/>
+              <a:ext cx="206595" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛_𝑖𝑗</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="206595" cy="183192"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="215900" y="749300"/>
+              <a:ext cx="206595" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐶</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖𝑗</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="215900" y="749300"/>
+              <a:ext cx="206595" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐶_𝑖𝑗</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="206595" cy="183192"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="488950" y="1092200"/>
+              <a:off x="228600" y="533400"/>
               <a:ext cx="206595" cy="183192"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -501,6 +1114,298 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
+              <a:off x="228600" y="533400"/>
+              <a:ext cx="206595" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛_𝑖𝑗</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="377475" cy="183192"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2800350" y="1130300"/>
+              <a:ext cx="377475" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐶</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖𝑗</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>≥</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2800350" y="1130300"/>
+              <a:ext cx="377475" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐶_𝑖𝑗  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>≥</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="206595" cy="183192"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="488950" y="1092200"/>
+              <a:ext cx="206595" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖𝑗</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
               <a:off x="488950" y="1092200"/>
               <a:ext cx="206595" cy="183192"/>
             </a:xfrm>
@@ -547,7 +1452,1145 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="206595" cy="183192"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="215900" y="749300"/>
+              <a:ext cx="206595" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐶</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖𝑗</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="215900" y="749300"/>
+              <a:ext cx="206595" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐶_𝑖𝑗</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="206595" cy="183192"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="228600" y="533400"/>
+              <a:ext cx="206595" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖𝑗</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="228600" y="533400"/>
+              <a:ext cx="206595" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛_𝑖𝑗</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="377475" cy="183192"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3022600" y="1123950"/>
+              <a:ext cx="377475" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐶</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖𝑗</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>≥</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3022600" y="1123950"/>
+              <a:ext cx="377475" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐶_𝑖𝑗  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>≥</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="206595" cy="183192"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="488950" y="1092200"/>
+              <a:ext cx="206595" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖𝑗</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="488950" y="1092200"/>
+              <a:ext cx="206595" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛_𝑖𝑗</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="206595" cy="183192"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="215900" y="749300"/>
+              <a:ext cx="206595" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐶</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖𝑗</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="215900" y="749300"/>
+              <a:ext cx="206595" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐶_𝑖𝑗</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="206595" cy="183192"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="228600" y="533400"/>
+              <a:ext cx="206595" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖𝑗</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="228600" y="533400"/>
+              <a:ext cx="206595" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛_𝑖𝑗</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="377475" cy="183192"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3035300" y="1111250"/>
+              <a:ext cx="377475" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐶</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖𝑗</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>≥</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3035300" y="1111250"/>
+              <a:ext cx="377475" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐶_𝑖𝑗  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>≥</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="206595" cy="183192"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="488950" y="1092200"/>
+              <a:ext cx="206595" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖𝑗</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="488950" y="1092200"/>
+              <a:ext cx="206595" cy="183192"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛_𝑖𝑗</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -821,14 +2864,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="377475" cy="183192"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -836,7 +2879,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="996950" y="1111250"/>
+              <a:off x="2774950" y="1123950"/>
               <a:ext cx="377475" cy="183192"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -917,7 +2960,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -925,7 +2968,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="996950" y="1111250"/>
+              <a:off x="2774950" y="1123950"/>
               <a:ext cx="377475" cy="183192"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1377,552 +3420,577 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I39"/>
+  <dimension ref="B1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.81640625" customWidth="1"/>
     <col min="2" max="2" width="8.7265625" style="3"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="E2" s="1"/>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2">
-        <f>D4*D2</f>
-        <v>7.5000000000000011E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+        <f>D2</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="8">
-        <v>0.05</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="E3" s="1"/>
       <c r="F3" t="s">
         <v>5</v>
       </c>
       <c r="G3">
-        <f>G2*(1-D2)</f>
-        <v>7.3125000000000009E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+        <f>D2*(1-D2)</f>
+        <v>2.4375000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="8">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E4" s="1"/>
       <c r="F4" t="s">
         <v>6</v>
       </c>
       <c r="G4">
         <f>_xlfn.NORM.S.INV(1-D3)</f>
-        <v>1.6448536269514715</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>2.3263478740408408</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="11">
         <f>D4*(D4-1)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C7" s="12"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="4">
         <v>0</v>
       </c>
-      <c r="C8" s="2">
-        <f>SQRT(B8*$G$3)*$G$4+B8*$G$2</f>
+      <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" s="4">
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <f>SQRT($G$3)*$G$4+$G$2+C8</f>
-        <v>0.51979530694548359</v>
+        <f>$G$2+C8</f>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D9">
-        <f t="shared" ref="D9:D38" si="0">ROUNDUP(C9,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="2"/>
+        <f t="shared" ref="D9:D28" si="0">$G$3+D8</f>
+        <v>2.4375000000000001E-2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:E28" si="1">SQRT(D9)*$G$4</f>
+        <v>0.36320094542408549</v>
+      </c>
       <c r="F9">
-        <f>C9*F8</f>
-        <v>3.1187718416729018</v>
-      </c>
-      <c r="G9">
-        <f>C10*G8</f>
-        <v>3.1187718416729018</v>
-      </c>
-      <c r="H9">
-        <f>C11*H8</f>
-        <v>3.1187718416729018</v>
-      </c>
-      <c r="I9">
-        <f>I8*C14</f>
-        <v>3.1187718416729013</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+        <f t="shared" ref="F9:F28" si="2">C9+E9</f>
+        <v>0.38820094542408551</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
         <v>2</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" ref="C10:C38" si="1">SQRT($G$3)*$G$4+$G$2+C9</f>
-        <v>1.0395906138909672</v>
+        <f>$G$2+C9</f>
+        <v>0.05</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0.51364370288547201</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>0.56364370288547205</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" s="4">
         <v>3</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="1"/>
-        <v>1.5593859208364509</v>
+        <f>$G$2+C10</f>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="4">
+        <v>7.3124999999999996E-2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0.62908249083156687</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>0.70408249083156682</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="12">
         <v>4</v>
       </c>
-      <c r="C12" s="2">
-        <f t="shared" si="1"/>
-        <v>2.0791812277819344</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C12" s="13">
+        <f t="shared" ref="C12:C28" si="3">$G$2+C11</f>
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="14">
+        <f t="shared" si="0"/>
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="E12" s="14">
+        <f t="shared" si="1"/>
+        <v>0.72640189084817097</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="2"/>
+        <v>0.82640189084817095</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B13" s="4">
         <v>5</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="1"/>
-        <v>2.5989765347274179</v>
+        <f t="shared" si="3"/>
+        <v>0.125</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+        <v>0.12187500000000001</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>0.8121420034604464</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>0.9371420034604464</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="4">
         <v>6</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="1"/>
-        <v>3.1187718416729013</v>
+        <f t="shared" si="3"/>
+        <v>0.15</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+        <v>0.14625000000000002</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0.88965699038545043</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>1.0396569903854505</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" s="4">
         <v>7</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="1"/>
-        <v>3.6385671486183848</v>
+        <f t="shared" si="3"/>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+        <v>0.17062500000000003</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0.96093937753567304</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>1.135939377535673</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" s="4">
         <v>8</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="1"/>
-        <v>4.1583624555638687</v>
+        <f t="shared" si="3"/>
+        <v>0.19999999999999998</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+        <v>0.19500000000000003</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>1.0272874057709442</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>1.2272874057709442</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="4">
         <v>9</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="1"/>
-        <v>4.6781577625093522</v>
+        <f t="shared" si="3"/>
+        <v>0.22499999999999998</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+        <v>0.21937500000000004</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>1.0896028362722565</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>1.3146028362722566</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="4">
         <v>10</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="1"/>
-        <v>5.1979530694548357</v>
+        <f t="shared" si="3"/>
+        <v>0.24999999999999997</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+        <v>0.24375000000000005</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>1.1485422358666204</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>1.3985422358666204</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="4">
         <v>11</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="1"/>
-        <v>5.7177483764003192</v>
+        <f t="shared" si="3"/>
+        <v>0.27499999999999997</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+        <v>0.26812500000000006</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>1.2046012594740407</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>1.4796012594740406</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="4">
         <v>12</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="1"/>
-        <v>6.2375436833458027</v>
+        <f t="shared" si="3"/>
+        <v>0.3</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+        <v>0.29250000000000004</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>1.2581649816631342</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>1.5581649816631342</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="4">
         <v>13</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="1"/>
-        <v>6.7573389902912862</v>
+        <f>$G$2+C20</f>
+        <v>0.32500000000000001</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+        <v>0.31687500000000002</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>1.3095396320235384</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>1.6345396320235384</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="4">
         <v>14</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="1"/>
-        <v>7.2771342972367696</v>
+        <f t="shared" si="3"/>
+        <v>0.35000000000000003</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+        <v>0.34125</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>1.3589735003293086</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>1.7089735003293087</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="4">
         <v>15</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="1"/>
-        <v>7.7969296041822531</v>
+        <f t="shared" si="3"/>
+        <v>0.37500000000000006</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+        <v>0.36562499999999998</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>1.406671212954272</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>1.781671212954272</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="4">
         <v>16</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="1"/>
-        <v>8.3167249111277375</v>
+        <f t="shared" si="3"/>
+        <v>0.40000000000000008</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+        <v>0.38999999999999996</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>1.4528037816963419</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>1.8528037816963421</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="4">
         <v>17</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="1"/>
-        <v>8.8365202180732219</v>
+        <f t="shared" si="3"/>
+        <v>0.4250000000000001</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+        <v>0.41437499999999994</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>1.4975158613076998</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>1.9225158613076998</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="4">
         <v>18</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" si="1"/>
-        <v>9.3563155250187062</v>
+        <f t="shared" si="3"/>
+        <v>0.45000000000000012</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+        <v>0.43874999999999992</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>1.5409311086564157</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>1.9909311086564159</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="4">
         <v>19</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="1"/>
-        <v>9.8761108319641906</v>
+        <f t="shared" si="3"/>
+        <v>0.47500000000000014</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+        <v>0.4631249999999999</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>1.5831562173020197</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>2.0581562173020198</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="4">
         <v>20</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" si="1"/>
-        <v>10.395906138909675</v>
+        <f t="shared" si="3"/>
+        <v>0.50000000000000011</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+        <v>0.48749999999999988</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>1.6242840069208924</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>2.1242840069208926</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" s="4">
         <v>21</v>
       </c>
-      <c r="C29" s="2">
-        <f t="shared" si="1"/>
-        <v>10.915701445855159</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30" s="4">
         <v>22</v>
       </c>
-      <c r="C30" s="2">
-        <f t="shared" si="1"/>
-        <v>11.435496752800644</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31" s="4">
         <v>23</v>
       </c>
-      <c r="C31" s="2">
-        <f t="shared" si="1"/>
-        <v>11.955292059746128</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32" s="4">
         <v>24</v>
       </c>
-      <c r="C32" s="2">
-        <f t="shared" si="1"/>
-        <v>12.475087366691612</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" s="4">
         <v>25</v>
       </c>
-      <c r="C33" s="2">
-        <f t="shared" si="1"/>
-        <v>12.994882673637097</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="4">
         <v>26</v>
       </c>
-      <c r="C34" s="2">
-        <f t="shared" si="1"/>
-        <v>13.514677980582581</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" s="4">
         <v>27</v>
       </c>
-      <c r="C35" s="2">
-        <f t="shared" si="1"/>
-        <v>14.034473287528066</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" s="4">
         <v>28</v>
       </c>
-      <c r="C36" s="2">
-        <f t="shared" si="1"/>
-        <v>14.55426859447355</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37" s="4">
         <v>29</v>
       </c>
-      <c r="C37" s="2">
-        <f t="shared" si="1"/>
-        <v>15.074063901419034</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38" s="4">
         <v>30</v>
       </c>
-      <c r="C38" s="2">
-        <f t="shared" si="1"/>
-        <v>15.593859208364519</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C39" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="6" priority="15" operator="lessThanOrEqual">
-      <formula>$D$3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9:E38">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThanOrEqual">
-      <formula>$D$3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:C38">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="C9:C28">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThanOrEqual">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1933,57 +4001,61 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I39"/>
+  <dimension ref="B1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.81640625" customWidth="1"/>
     <col min="2" max="2" width="8.7265625" style="3"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6">
-        <v>2.5000000000000001E-2</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="E2" s="1"/>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2">
         <f>D2</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="8">
         <v>0.01</v>
       </c>
+      <c r="E3" s="1"/>
       <c r="F3" t="s">
         <v>5</v>
       </c>
       <c r="G3">
         <f>D2*(1-D2)</f>
-        <v>2.4375000000000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+        <v>4.7500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="8">
         <v>5</v>
       </c>
+      <c r="E4" s="1"/>
       <c r="F4" t="s">
         <v>6</v>
       </c>
@@ -1992,7 +4064,7 @@
         <v>2.3263478740408408</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="10" t="s">
         <v>3</v>
       </c>
@@ -2000,800 +4072,2248 @@
         <f>D4*(D4-1)</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="C7" s="12"/>
-      <c r="F7" t="s">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="G7" t="s">
+      <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="H7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="E7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="4">
         <v>0</v>
       </c>
-      <c r="C8" s="2">
-        <f>SQRT(B8*$G$3)*$G$4+B8*$G$2</f>
+      <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" s="4">
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <f>SQRT($G$3)*$G$4+$G$2+C8</f>
-        <v>0.38820094542408551</v>
+        <f>$G$2+C8</f>
+        <v>0.05</v>
       </c>
       <c r="D9">
-        <f t="shared" ref="D9:D38" si="0">ROUNDUP(C9,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2">
-        <f>$G$2+F8</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G9">
-        <f>$G$3+G8</f>
-        <v>2.4375000000000001E-2</v>
-      </c>
-      <c r="H9">
-        <f>SQRT(G9)*$G$4</f>
-        <v>0.36320094542408549</v>
-      </c>
-      <c r="I9">
-        <f>F9+H9</f>
-        <v>0.38820094542408551</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+        <f t="shared" ref="D9:D28" si="0">$G$3+D8</f>
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:E28" si="1">SQRT(D9)*$G$4</f>
+        <v>0.5070157645232356</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:F28" si="2">C9+E9</f>
+        <v>0.55701576452323565</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" s="4">
         <v>2</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" ref="C10:C38" si="1">SQRT($G$3)*$G$4+$G$2+C9</f>
-        <v>0.77640189084817102</v>
+        <f>$G$2+C9</f>
+        <v>0.1</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2">
-        <f>$G$2+F9</f>
-        <v>0.05</v>
-      </c>
-      <c r="G10">
-        <f>$G$3+G9</f>
-        <v>4.8750000000000002E-2</v>
-      </c>
-      <c r="H10">
-        <f>SQRT(G10)*$G$4</f>
-        <v>0.51364370288547201</v>
-      </c>
-      <c r="I10">
-        <f>F10+H10</f>
-        <v>0.56364370288547205</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0.71702857052572333</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>0.81702857052572331</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" s="4">
         <v>3</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="1"/>
-        <v>1.1646028362722565</v>
+        <f>$G$2+C10</f>
+        <v>0.15000000000000002</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2">
-        <f>$G$2+F10</f>
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="G11">
-        <f>$G$3+G10</f>
-        <v>7.3124999999999996E-2</v>
-      </c>
-      <c r="H11">
-        <f>SQRT(G11)*$G$4</f>
-        <v>0.62908249083156687</v>
-      </c>
-      <c r="I11">
-        <f>F11+H11</f>
-        <v>0.70408249083156682</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="4">
+        <v>0.14250000000000002</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0.87817706439262211</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>1.0281770643926222</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="12">
         <v>4</v>
       </c>
-      <c r="C12" s="2">
-        <f t="shared" si="1"/>
-        <v>1.552803781696342</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2">
-        <f t="shared" ref="F12:F28" si="2">$G$2+F11</f>
-        <v>0.1</v>
-      </c>
-      <c r="G12">
-        <f t="shared" ref="G12:G28" si="3">$G$3+G11</f>
-        <v>9.7500000000000003E-2</v>
-      </c>
-      <c r="H12">
-        <f>SQRT(G12)*$G$4</f>
-        <v>0.72640189084817097</v>
-      </c>
-      <c r="I12">
-        <f>F12+H12</f>
-        <v>0.82640189084817095</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C12" s="13">
+        <f t="shared" ref="C12:C28" si="3">$G$2+C11</f>
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="14">
+        <f t="shared" si="0"/>
+        <v>0.19</v>
+      </c>
+      <c r="E12" s="14">
+        <f t="shared" si="1"/>
+        <v>1.0140315290464712</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="2"/>
+        <v>1.2140315290464712</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B13" s="4">
         <v>5</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="1"/>
-        <v>1.9410047271204276</v>
+        <f t="shared" si="3"/>
+        <v>0.25</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2">
-        <f t="shared" si="2"/>
-        <v>0.125</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="3"/>
-        <v>0.12187500000000001</v>
-      </c>
-      <c r="H13">
-        <f>SQRT(G13)*$G$4</f>
-        <v>0.8121420034604464</v>
-      </c>
-      <c r="I13">
-        <f>F13+H13</f>
-        <v>0.9371420034604464</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>1.133721715137981</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>1.383721715137981</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="4">
         <v>6</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="1"/>
-        <v>2.3292056725445129</v>
+        <f t="shared" si="3"/>
+        <v>0.3</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2">
-        <f t="shared" si="2"/>
-        <v>0.15</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="3"/>
-        <v>0.14625000000000002</v>
-      </c>
-      <c r="H14">
-        <f>SQRT(G14)*$G$4</f>
-        <v>0.88965699038545043</v>
-      </c>
-      <c r="I14">
-        <f>F14+H14</f>
-        <v>1.0396569903854505</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>1.2419299146290368</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>1.5419299146290368</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" s="4">
         <v>7</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7174066179685985</v>
+        <f t="shared" si="3"/>
+        <v>0.35</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2">
-        <f t="shared" si="2"/>
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="3"/>
-        <v>0.17062500000000003</v>
-      </c>
-      <c r="H15">
-        <f>SQRT(G15)*$G$4</f>
-        <v>0.96093937753567304</v>
-      </c>
-      <c r="I15">
-        <f>F15+H15</f>
-        <v>1.135939377535673</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+        <v>0.33249999999999996</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>1.3414376237177663</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>1.6914376237177664</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" s="4">
         <v>8</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="1"/>
-        <v>3.1056075633926841</v>
+        <f t="shared" si="3"/>
+        <v>0.39999999999999997</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2">
-        <f t="shared" si="2"/>
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="3"/>
-        <v>0.19500000000000003</v>
-      </c>
-      <c r="H16">
-        <f>SQRT(G16)*$G$4</f>
-        <v>1.0272874057709442</v>
-      </c>
-      <c r="I16">
-        <f>F16+H16</f>
-        <v>1.2272874057709442</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+        <v>0.37999999999999995</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>1.4340571410514467</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>1.8340571410514466</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="4">
         <v>9</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="1"/>
-        <v>3.4938085088167696</v>
+        <f t="shared" si="3"/>
+        <v>0.44999999999999996</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2">
-        <f t="shared" si="2"/>
-        <v>0.22499999999999998</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="3"/>
-        <v>0.21937500000000004</v>
-      </c>
-      <c r="H17">
-        <f>SQRT(G17)*$G$4</f>
-        <v>1.0896028362722565</v>
-      </c>
-      <c r="I17">
-        <f>F17+H17</f>
-        <v>1.3146028362722566</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
+        <v>0.42749999999999994</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>1.5210472935697066</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>1.9710472935697065</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="4">
         <v>10</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="1"/>
-        <v>3.8820094542408552</v>
+        <f t="shared" si="3"/>
+        <v>0.49999999999999994</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2">
-        <f t="shared" si="2"/>
-        <v>0.24999999999999997</v>
-      </c>
-      <c r="G18">
-        <f>$G$3+G17</f>
-        <v>0.24375000000000005</v>
-      </c>
-      <c r="H18">
-        <f>SQRT(G18)*$G$4</f>
-        <v>1.1485422358666204</v>
-      </c>
-      <c r="I18">
-        <f>F18+H18</f>
-        <v>1.3985422358666204</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
+        <v>0.47499999999999992</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>1.6033246255050195</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>2.1033246255050195</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="4">
         <v>11</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="1"/>
-        <v>4.2702103996649408</v>
+        <f t="shared" si="3"/>
+        <v>0.54999999999999993</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2">
-        <f t="shared" si="2"/>
-        <v>0.27499999999999997</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="3"/>
-        <v>0.26812500000000006</v>
-      </c>
-      <c r="H19">
-        <f>SQRT(G19)*$G$4</f>
-        <v>1.2046012594740407</v>
-      </c>
-      <c r="I19">
-        <f>F19+H19</f>
-        <v>1.4796012594740406</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
+        <v>0.52249999999999996</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>1.6815810537187592</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>2.231581053718759</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="4">
         <v>12</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="1"/>
-        <v>4.6584113450890259</v>
+        <f t="shared" si="3"/>
+        <v>0.6</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="3"/>
-        <v>0.29250000000000004</v>
-      </c>
-      <c r="H20">
-        <f>SQRT(G20)*$G$4</f>
-        <v>1.2581649816631342</v>
-      </c>
-      <c r="I20">
-        <f>F20+H20</f>
-        <v>1.5581649816631342</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.35">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>1.756354128785244</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>2.3563541287852439</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="4">
         <v>13</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="1"/>
-        <v>5.046612290513111</v>
+        <f>$G$2+C20</f>
+        <v>0.65</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2">
-        <f>$G$2+F20</f>
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="3"/>
-        <v>0.31687500000000002</v>
-      </c>
-      <c r="H21">
-        <f>SQRT(G21)*$G$4</f>
-        <v>1.3095396320235384</v>
-      </c>
-      <c r="I21">
-        <f>F21+H21</f>
-        <v>1.6345396320235384</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+        <v>0.61749999999999994</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>1.8280713364571017</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>2.4780713364571016</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="4">
         <v>14</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="1"/>
-        <v>5.4348132359371961</v>
+        <f t="shared" si="3"/>
+        <v>0.70000000000000007</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2">
-        <f t="shared" si="2"/>
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="3"/>
-        <v>0.34125</v>
-      </c>
-      <c r="H22">
-        <f>SQRT(G22)*$G$4</f>
-        <v>1.3589735003293086</v>
-      </c>
-      <c r="I22">
-        <f>F22+H22</f>
-        <v>1.7089735003293087</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+        <v>0.66499999999999992</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>1.8970792805392016</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>2.5970792805392016</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="4">
         <v>15</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="1"/>
-        <v>5.8230141813612812</v>
+        <f t="shared" si="3"/>
+        <v>0.75000000000000011</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2">
-        <f t="shared" si="2"/>
-        <v>0.37500000000000006</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="3"/>
-        <v>0.36562499999999998</v>
-      </c>
-      <c r="H23">
-        <f>SQRT(G23)*$G$4</f>
-        <v>1.406671212954272</v>
-      </c>
-      <c r="I23">
-        <f>F23+H23</f>
-        <v>1.781671212954272</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+        <v>0.71249999999999991</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>1.9636636122631128</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>2.713663612263113</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="4">
         <v>16</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="1"/>
-        <v>6.2112151267853664</v>
+        <f t="shared" si="3"/>
+        <v>0.80000000000000016</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2">
-        <f t="shared" si="2"/>
-        <v>0.40000000000000008</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="3"/>
-        <v>0.38999999999999996</v>
-      </c>
-      <c r="H24">
-        <f>SQRT(G24)*$G$4</f>
-        <v>1.4528037816963419</v>
-      </c>
-      <c r="I24">
-        <f>F24+H24</f>
-        <v>1.8528037816963421</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+        <v>0.7599999999999999</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>2.0280630580929424</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>2.8280630580929427</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="4">
         <v>17</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="1"/>
-        <v>6.5994160722094515</v>
+        <f t="shared" si="3"/>
+        <v>0.8500000000000002</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2">
-        <f t="shared" si="2"/>
-        <v>0.4250000000000001</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="3"/>
-        <v>0.41437499999999994</v>
-      </c>
-      <c r="H25">
-        <f>SQRT(G25)*$G$4</f>
-        <v>1.4975158613076998</v>
-      </c>
-      <c r="I25">
-        <f>F25+H25</f>
-        <v>1.9225158613076998</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+        <v>0.80749999999999988</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>2.0904795509825917</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>2.9404795509825918</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="4">
         <v>18</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" si="1"/>
-        <v>6.9876170176335366</v>
+        <f t="shared" si="3"/>
+        <v>0.90000000000000024</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2">
-        <f t="shared" si="2"/>
-        <v>0.45000000000000012</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="3"/>
-        <v>0.43874999999999992</v>
-      </c>
-      <c r="H26">
-        <f>SQRT(G26)*$G$4</f>
-        <v>1.5409311086564157</v>
-      </c>
-      <c r="I26">
-        <f>F26+H26</f>
-        <v>1.9909311086564159</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+        <v>0.85499999999999987</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>2.1510857115771698</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>3.0510857115771701</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="4">
         <v>19</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="1"/>
-        <v>7.3758179630576217</v>
+        <f t="shared" si="3"/>
+        <v>0.95000000000000029</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2">
-        <f t="shared" si="2"/>
-        <v>0.47500000000000014</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="3"/>
-        <v>0.4631249999999999</v>
-      </c>
-      <c r="H27">
-        <f>SQRT(G27)*$G$4</f>
-        <v>1.5831562173020197</v>
-      </c>
-      <c r="I27">
-        <f>F27+H27</f>
-        <v>2.0581562173020198</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+        <v>0.90249999999999986</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>2.2100304803387987</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>3.1600304803387989</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="4">
         <v>20</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" si="1"/>
-        <v>7.7640189084817068</v>
+        <f t="shared" si="3"/>
+        <v>1.0000000000000002</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2">
-        <f t="shared" si="2"/>
-        <v>0.50000000000000011</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="3"/>
-        <v>0.48749999999999988</v>
-      </c>
-      <c r="H28">
-        <f>SQRT(G28)*$G$4</f>
-        <v>1.6242840069208924</v>
-      </c>
-      <c r="I28">
-        <f>F28+H28</f>
-        <v>2.1242840069208926</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+        <v>0.94999999999999984</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>2.2674434302759621</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>3.2674434302759625</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" s="4">
         <v>21</v>
       </c>
-      <c r="C29" s="2">
-        <f t="shared" si="1"/>
-        <v>8.1522198539057928</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30" s="4">
         <v>22</v>
       </c>
-      <c r="C30" s="2">
-        <f t="shared" si="1"/>
-        <v>8.540420799329878</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31" s="4">
         <v>23</v>
       </c>
-      <c r="C31" s="2">
-        <f t="shared" si="1"/>
-        <v>8.9286217447539631</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32" s="4">
         <v>24</v>
       </c>
-      <c r="C32" s="2">
-        <f t="shared" si="1"/>
-        <v>9.3168226901780482</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" s="4">
         <v>25</v>
       </c>
-      <c r="C33" s="2">
-        <f t="shared" si="1"/>
-        <v>9.7050236356021333</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="4">
         <v>26</v>
       </c>
-      <c r="C34" s="2">
-        <f t="shared" si="1"/>
-        <v>10.093224581026218</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" s="4">
         <v>27</v>
       </c>
-      <c r="C35" s="2">
-        <f t="shared" si="1"/>
-        <v>10.481425526450304</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" s="4">
         <v>28</v>
       </c>
-      <c r="C36" s="2">
-        <f t="shared" si="1"/>
-        <v>10.869626471874389</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B37" s="4">
         <v>29</v>
       </c>
-      <c r="C37" s="2">
-        <f t="shared" si="1"/>
-        <v>11.257827417298474</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B38" s="4">
         <v>30</v>
       </c>
-      <c r="C38" s="2">
-        <f t="shared" si="1"/>
-        <v>11.646028362722559</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C39" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="C9:C28">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThanOrEqual">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9:E38">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThanOrEqual">
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.81640625" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="3"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <f>D2</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <f>D2*(1-D2)</f>
+        <v>6.9375000000000006E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <f>_xlfn.NORM.S.INV(1-D3)</f>
+        <v>2.3263478740408408</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="11">
+        <f>D4*(D4-1)</f>
+        <v>20</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <f>$G$2+C8</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:D28" si="0">$G$3+D8</f>
+        <v>6.9375000000000006E-2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:E28" si="1">SQRT(D9)*$G$4</f>
+        <v>0.61273989273948437</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:F28" si="2">C9+E9</f>
+        <v>0.68773989273948433</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <f>$G$2+C9</f>
+        <v>0.15</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.13875000000000001</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0.86654506651921437</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>1.0165450665192144</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="4">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2">
+        <f>$G$2+C10</f>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.208125</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>1.061296626049091</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>1.2862966260490909</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="12">
+        <v>4</v>
+      </c>
+      <c r="C12" s="13">
+        <f t="shared" ref="C12:C28" si="3">$G$2+C11</f>
+        <v>0.3</v>
+      </c>
+      <c r="D12" s="14">
+        <f t="shared" si="0"/>
+        <v>0.27750000000000002</v>
+      </c>
+      <c r="E12" s="14">
+        <f t="shared" si="1"/>
+        <v>1.2254797854789687</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="2"/>
+        <v>1.5254797854789688</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B13" s="4">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="3"/>
+        <v>0.375</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.34687500000000004</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>1.370128052691417</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>1.745128052691417</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="4">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="3"/>
+        <v>0.45</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.41625000000000006</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>1.5009000822594318</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>1.9509000822594318</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B15" s="4">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="3"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.48562500000000008</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>1.6211573745570673</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>2.1461573745570672</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="4">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>1.7330901330384287</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>2.3330901330384286</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="4">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="3"/>
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.62437500000000001</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>1.838219678218453</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>2.5132196782184528</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B18" s="4">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="3"/>
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.69374999999999998</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>1.9376536743040402</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>2.6876536743040402</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="4">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="3"/>
+        <v>0.82499999999999984</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.76312499999999994</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>2.0322283182994823</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>2.857228318299482</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20" s="4">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="3"/>
+        <v>0.8999999999999998</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0.83249999999999991</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>2.1225932520981821</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>3.022593252098182</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B21" s="4">
+        <v>13</v>
+      </c>
+      <c r="C21" s="2">
+        <f>$G$2+C20</f>
+        <v>0.97499999999999976</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0.90187499999999987</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>2.2092651017945157</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>3.1842651017945154</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="4">
+        <v>14</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.97124999999999984</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>2.2926627458397637</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>3.3426627458397635</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="4">
+        <v>15</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1249999999999998</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1.0406249999999999</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>2.3731314001369417</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>3.4981314001369412</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B24" s="4">
+        <v>16</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1999999999999997</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>1.1099999999999999</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>2.4509595709579375</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>3.6509595709579372</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B25" s="4">
+        <v>17</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2749999999999997</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>1.1793749999999998</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>2.5263912987945298</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>3.8013912987945293</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B26" s="4">
+        <v>18</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="3"/>
+        <v>1.3499999999999996</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>1.2487499999999998</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>2.5996351995576426</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>3.9496351995576422</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B27" s="4">
+        <v>19</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="3"/>
+        <v>1.4249999999999996</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>1.3181249999999998</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>2.6708712711273637</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>4.095871271127363</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B28" s="4">
+        <v>20</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="3"/>
+        <v>1.4999999999999996</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>1.3874999999999997</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>2.7402561053828336</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>4.2402561053828336</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B29" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B30" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B31" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B32" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B33" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B34" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B35" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B36" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B37" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B38" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C39" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C9:C28">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThanOrEqual">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:C38">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.81640625" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="3"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <f>D2</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <f>D2*(1-D2)</f>
+        <v>9.0000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <f>_xlfn.NORM.S.INV(1-D3)</f>
+        <v>2.3263478740408408</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="11">
+        <f>D4*(D4-1)</f>
+        <v>20</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <f>$G$2+C8</f>
+        <v>0.1</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:D28" si="0">$G$3+D8</f>
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:E28" si="1">SQRT(D9)*$G$4</f>
+        <v>0.69790436221225238</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:F28" si="2">C9+E9</f>
+        <v>0.79790436221225236</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <f>$G$2+C9</f>
+        <v>0.2</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0.98698581427991217</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>1.1869858142799121</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="4">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2">
+        <f>$G$2+C10</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.27</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>1.2088058141755738</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>1.5088058141755738</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="12">
+        <v>4</v>
+      </c>
+      <c r="C12" s="13">
+        <f t="shared" ref="C12:C28" si="3">$G$2+C11</f>
+        <v>0.4</v>
+      </c>
+      <c r="D12" s="14">
+        <f t="shared" si="0"/>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="E12" s="14">
+        <f t="shared" si="1"/>
+        <v>1.3958087244245048</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="2"/>
+        <v>1.7958087244245049</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B13" s="4">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.45000000000000007</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>1.5605615957002315</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>2.0605615957002312</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="4">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.54</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>1.7095095766825477</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>2.3095095766825477</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B15" s="4">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.63</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>1.8464813813207632</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>2.5464813813207634</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="4">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="3"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.72</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>1.9739716285598241</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>2.7739716285598242</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="4">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="3"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.80999999999999994</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>2.0937130866367566</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>2.9937130866367565</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B18" s="4">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="3"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>2.2069673735578661</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>3.2069673735578661</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="4">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.98999999999999988</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>2.3146869090103297</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>3.4146869090103298</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20" s="4">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1.0799999999999998</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>2.4176116283511471</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>3.6176116283511472</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B21" s="4">
+        <v>13</v>
+      </c>
+      <c r="C21" s="2">
+        <f>$G$2+C20</f>
+        <v>1.3</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1.17</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>2.5163299633262675</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>3.8163299633262673</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="4">
+        <v>14</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="3"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>1.26</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>2.6113190121332299</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>4.0113190121332298</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="4">
+        <v>15</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="3"/>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1.35</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>2.7029719720935619</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>4.2029719720935619</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B24" s="4">
+        <v>16</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="3"/>
+        <v>1.6000000000000003</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>1.4400000000000002</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>2.7916174488490095</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>4.3916174488490096</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B25" s="4">
+        <v>17</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7000000000000004</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>1.5300000000000002</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>2.8775334019804428</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>4.5775334019804435</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B26" s="4">
+        <v>18</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="3"/>
+        <v>1.8000000000000005</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>1.6200000000000003</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>2.9609574428397365</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>4.7609574428397368</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B27" s="4">
+        <v>19</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="3"/>
+        <v>1.9000000000000006</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>1.7100000000000004</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>3.0420945871394145</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>4.9420945871394153</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B28" s="4">
+        <v>20</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="3"/>
+        <v>2.0000000000000004</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>1.8000000000000005</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>3.1211231914004633</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>5.1211231914004642</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B29" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B30" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B31" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B32" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B33" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B34" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B35" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B36" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B37" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B38" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C39" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C9:C28">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThanOrEqual">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F28">
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.81640625" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="3"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <f>D2</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <f>D2*(1-D2)</f>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <f>_xlfn.NORM.S.INV(1-D3)</f>
+        <v>2.3263478740408408</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="11">
+        <f>D4*(D4-1)</f>
+        <v>20</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <f>$G$2+C8</f>
+        <v>0.25</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:D28" si="0">$G$3+D8</f>
+        <v>0.1875</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:E28" si="1">SQRT(D9)*$G$4</f>
+        <v>1.0073381784796447</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9:F28" si="2">C9+E9</f>
+        <v>1.2573381784796447</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <f>$G$2+C9</f>
+        <v>0.5</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>1.4245913139021229</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>1.9245913139021229</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="4">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2">
+        <f>$G$2+C10</f>
+        <v>0.75</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.5625</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>1.7447609055306306</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>2.4947609055306303</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="12">
+        <v>4</v>
+      </c>
+      <c r="C12" s="13">
+        <f t="shared" ref="C12:C28" si="3">$G$2+C11</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="14">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="E12" s="14">
+        <f t="shared" si="1"/>
+        <v>2.0146763569592894</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="2"/>
+        <v>3.0146763569592894</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B13" s="4">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="3"/>
+        <v>1.25</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.9375</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>2.2524766434113017</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>3.5024766434113017</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="4">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1.125</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>2.4674645356997802</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>3.9674645356997802</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B15" s="4">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="3"/>
+        <v>1.75</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>1.3125</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>2.6651663063979365</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>4.4151663063979365</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="4">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>2.8491826278042458</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>4.8491826278042458</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="4">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="3"/>
+        <v>2.25</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1.6875</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>3.0220145354389345</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>5.2720145354389345</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B18" s="4">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>1.875</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>3.1854830180408884</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>5.6854830180408884</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="4">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="3"/>
+        <v>2.75</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>2.0625</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>3.3409627750170423</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>6.0909627750170419</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20" s="4">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>3.4895218110612611</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>6.4895218110612607</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B21" s="4">
+        <v>13</v>
+      </c>
+      <c r="C21" s="2">
+        <f>$G$2+C20</f>
+        <v>3.25</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>2.4375</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>3.6320094542408548</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>6.8820094542408548</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="4">
+        <v>14</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>2.625</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>3.7691143364877697</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>7.2691143364877693</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="4">
+        <v>15</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="3"/>
+        <v>3.75</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>2.8125</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>3.901403989250579</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>7.6514039892505785</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B24" s="4">
+        <v>16</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>4.0293527139185787</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>8.0293527139185787</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B25" s="4">
+        <v>17</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="3"/>
+        <v>4.25</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>3.1875</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>4.1533617105888707</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>8.4033617105888716</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B26" s="4">
+        <v>18</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="3"/>
+        <v>4.5</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>3.375</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>4.2737739417063692</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>8.77377394170637</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B27" s="4">
+        <v>19</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="3"/>
+        <v>4.75</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>3.5625</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>4.3908853219631103</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>9.1408853219631112</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B28" s="4">
+        <v>20</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>4.5049532868226034</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>9.5049532868226034</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B29" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B30" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B31" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B32" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B33" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B34" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B35" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B36" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B37" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B38" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C39" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C9:C28">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
       <formula>$D$3</formula>
     </cfRule>
